--- a/Informe Diario/Formato guia control de renta.xlsx
+++ b/Informe Diario/Formato guia control de renta.xlsx
@@ -274,7 +274,7 @@
     <t>TFX160-TAR647</t>
   </si>
   <si>
-    <t>TFW499-LUN551</t>
+    <t>LUN551</t>
   </si>
   <si>
     <t>01/10/2024 12:00</t>
@@ -283,7 +283,7 @@
     <t xml:space="preserve">GS12846 </t>
   </si>
   <si>
-    <t>TAR543-TFX160</t>
+    <t>TAR543-TFW512</t>
   </si>
   <si>
     <t>GS13406</t>

--- a/Informe Diario/Formato guia control de renta.xlsx
+++ b/Informe Diario/Formato guia control de renta.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="119">
   <si>
     <t>Proveedor</t>
   </si>
@@ -106,9 +106,6 @@
     <t>MANTENIMIENTO</t>
   </si>
   <si>
-    <t>10/17/2023 12:00</t>
-  </si>
-  <si>
     <t>FVQ494</t>
   </si>
   <si>
@@ -253,7 +250,7 @@
     <t>Diana Gallego</t>
   </si>
   <si>
-    <t>TAR556</t>
+    <t>TAR556-TAR540</t>
   </si>
   <si>
     <t>GS12893</t>
@@ -274,25 +271,25 @@
     <t>GS13406</t>
   </si>
   <si>
-    <t>GEU798-TFW513</t>
+    <t>GEU798-TAR646</t>
   </si>
   <si>
     <t>GS13436</t>
   </si>
   <si>
-    <t>TAR649</t>
+    <t>TAR649-TFX161</t>
   </si>
   <si>
     <t>GS13471</t>
   </si>
   <si>
-    <t>TFX158-TAR648</t>
+    <t>TFX158-TAR648/TFW513</t>
   </si>
   <si>
     <t>GS12896</t>
   </si>
   <si>
-    <t>LJT097</t>
+    <t>LJT097-TAR552</t>
   </si>
   <si>
     <t>12/11/2024 12:00</t>
@@ -310,19 +307,19 @@
     <t>GS12897</t>
   </si>
   <si>
-    <t>TAR554-GEU798</t>
+    <t>TAR554-TFX162</t>
   </si>
   <si>
     <t>GS12898</t>
   </si>
   <si>
-    <t>TFX161</t>
+    <t>TFX161-TAR543</t>
   </si>
   <si>
     <t>GS13429</t>
   </si>
   <si>
-    <t>GEV100</t>
+    <t>GEV100-TAR649</t>
   </si>
   <si>
     <t>GS12892</t>
@@ -349,7 +346,7 @@
     <t>GS13180</t>
   </si>
   <si>
-    <t>TAR552</t>
+    <t>TAR552-TFX160</t>
   </si>
   <si>
     <t>GS133382</t>
@@ -1282,9 +1279,7 @@
       <c r="J6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="25"/>
       <c r="N6" s="29"/>
@@ -1299,7 +1294,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>19</v>
@@ -1312,16 +1307,16 @@
         <v>25568.791666666668</v>
       </c>
       <c r="J7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7" s="29"/>
       <c r="O7" s="1"/>
@@ -1335,7 +1330,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>19</v>
@@ -1351,7 +1346,7 @@
         <v>29</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" s="31"/>
       <c r="M8" s="25"/>
@@ -1367,7 +1362,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>19</v>
@@ -1386,10 +1381,10 @@
         <v>24</v>
       </c>
       <c r="L9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="33" t="s">
         <v>38</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>39</v>
       </c>
       <c r="N9" s="29"/>
       <c r="O9" s="1"/>
@@ -1403,7 +1398,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>19</v>
@@ -1416,7 +1411,7 @@
         <v>25568.79167824074</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10" s="15">
         <v>45298.5</v>
@@ -1425,7 +1420,7 @@
         <v>24</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1439,7 +1434,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>19</v>
@@ -1469,7 +1464,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>19</v>
@@ -1480,7 +1475,7 @@
       <c r="H12" s="39"/>
       <c r="I12" s="14"/>
       <c r="J12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12" s="31">
         <v>45299.5</v>
@@ -1489,7 +1484,7 @@
         <v>45300</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N12" s="17"/>
       <c r="O12" s="1"/>
@@ -1503,7 +1498,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>19</v>
@@ -1533,7 +1528,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>19</v>
@@ -1561,7 +1556,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>19</v>
@@ -1593,7 +1588,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>19</v>
@@ -1613,7 +1608,7 @@
         <v>45303.5</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N16" s="21"/>
       <c r="O16" s="22"/>
@@ -1627,7 +1622,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>19</v>
@@ -1657,7 +1652,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>19</v>
@@ -1681,13 +1676,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>19</v>
@@ -1709,13 +1704,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>19</v>
@@ -1739,13 +1734,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>19</v>
@@ -1769,13 +1764,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>19</v>
@@ -1788,16 +1783,16 @@
         <v>1009</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="M22" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="N22" s="37"/>
       <c r="O22" s="22"/>
@@ -1805,13 +1800,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>19</v>
@@ -1824,16 +1819,16 @@
         <v>1966</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="M23" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="N23" s="21"/>
       <c r="O23" s="22"/>
@@ -1841,16 +1836,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="19"/>
@@ -1869,16 +1864,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="19"/>
@@ -1897,13 +1892,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>19</v>
@@ -1927,13 +1922,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>19</v>
@@ -1950,10 +1945,10 @@
         <v>24</v>
       </c>
       <c r="L27" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="N27" s="21"/>
       <c r="O27" s="1"/>
@@ -1961,16 +1956,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="11"/>
@@ -1989,16 +1984,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -2017,16 +2012,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="38"/>
@@ -2045,13 +2040,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
       <c r="A31" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>19</v>
@@ -2071,7 +2066,7 @@
         <v>45300</v>
       </c>
       <c r="M31" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N31" s="16"/>
       <c r="O31" s="1"/>
@@ -2079,13 +2074,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
       <c r="A32" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>19</v>
@@ -2107,13 +2102,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
       <c r="A33" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>19</v>
@@ -2133,7 +2128,7 @@
         <v>45301</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N33" s="9"/>
       <c r="O33" s="22"/>
@@ -2141,13 +2136,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
       <c r="A34" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="C34" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>19</v>
@@ -2158,7 +2153,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="30"/>
       <c r="J34" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K34" s="15">
         <v>45293</v>
@@ -2173,13 +2168,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
       <c r="A35" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="C35" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>19</v>
@@ -2199,7 +2194,7 @@
         <v>45301.5</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N35" s="9"/>
       <c r="O35" s="33"/>
@@ -2207,13 +2202,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
       <c r="A36" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="C36" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>19</v>
@@ -2233,7 +2228,7 @@
         <v>45304.5</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N36" s="9"/>
       <c r="O36" s="33"/>
@@ -2241,13 +2236,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
       <c r="A37" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="C37" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>19</v>
@@ -2258,7 +2253,7 @@
       <c r="H37" s="11"/>
       <c r="I37" s="42"/>
       <c r="J37" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K37" s="15">
         <v>45296.5</v>
@@ -2267,21 +2262,21 @@
         <v>24</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N37" s="9"/>
       <c r="O37" s="33"/>
       <c r="P37" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="C38" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>19</v>
@@ -2301,21 +2296,21 @@
         <v>45301.5</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="33"/>
       <c r="P38" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="33">
       <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="C39" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>19</v>
@@ -2335,21 +2330,21 @@
         <v>45301.5</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N39" s="9"/>
       <c r="O39" s="33"/>
       <c r="P39" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="33">
       <c r="A40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="C40" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>19</v>
@@ -2363,27 +2358,27 @@
         <v>23</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L40" s="15">
         <v>45301.5</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N40" s="17"/>
       <c r="O40" s="33"/>
       <c r="P40" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="33">
       <c r="A41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="C41" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>19</v>
@@ -2397,27 +2392,27 @@
         <v>23</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L41" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="M41" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="N41" s="17"/>
       <c r="O41" s="51"/>
       <c r="P41" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="33">
       <c r="A42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="C42" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>19</v>
@@ -2431,27 +2426,27 @@
         <v>23</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N42" s="9"/>
       <c r="O42" s="51"/>
       <c r="P42" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="33">
       <c r="A43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="C43" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>19</v>
@@ -2468,24 +2463,24 @@
         <v>24</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N43" s="9"/>
       <c r="O43" s="33"/>
       <c r="P43" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="33">
       <c r="A44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="C44" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>19</v>
@@ -2499,27 +2494,27 @@
         <v>23</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N44" s="9"/>
       <c r="O44" s="33"/>
       <c r="P44" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="33">
       <c r="A45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="C45" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>19</v>
@@ -2530,30 +2525,30 @@
       <c r="H45" s="19"/>
       <c r="I45" s="42"/>
       <c r="J45" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K45" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="L45" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="M45" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="N45" s="9"/>
       <c r="O45" s="33"/>
       <c r="P45" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="33">
       <c r="A46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="C46" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>19</v>
@@ -2564,30 +2559,30 @@
       <c r="H46" s="19"/>
       <c r="I46" s="27"/>
       <c r="J46" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K46" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L46" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="L46" s="31" t="s">
+      <c r="M46" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="N46" s="9"/>
       <c r="O46" s="33"/>
       <c r="P46" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="33">
       <c r="A47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="C47" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>19</v>
@@ -2607,21 +2602,21 @@
         <v>24</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N47" s="9"/>
       <c r="O47" s="33"/>
       <c r="P47" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>19</v>
@@ -2632,7 +2627,7 @@
       <c r="H48" s="19"/>
       <c r="I48" s="32"/>
       <c r="J48" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K48" s="15">
         <v>45299.5</v>
@@ -2641,21 +2636,21 @@
         <v>45305.5</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="33"/>
       <c r="P48" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="C49" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>19</v>
@@ -2677,13 +2672,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="20.25">
       <c r="A50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="C50" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>19</v>
@@ -2694,7 +2689,7 @@
       <c r="H50" s="11"/>
       <c r="I50" s="19"/>
       <c r="J50" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K50" s="31">
         <v>45282.5</v>
@@ -2703,7 +2698,7 @@
         <v>45301</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N50" s="17"/>
       <c r="O50" s="33"/>
